--- a/data-raw/PCR_ref_data.xlsx
+++ b/data-raw/PCR_ref_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdoering\Documents\GitHub\primer_design\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\winfs-inf\TL\stat_learn\work\mdoering\openPrimeR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>IGHV1-2*02</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>primer 16</t>
+  </si>
+  <si>
+    <t>IGHV3-43*01</t>
   </si>
 </sst>
 </file>
@@ -793,9 +796,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +804,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,11 +1105,11 @@
     <col min="50" max="50" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="93" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:48" s="92" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="93" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1208,7 +1211,7 @@
       <c r="AI1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="95" t="s">
+      <c r="AJ1" s="94" t="s">
         <v>62</v>
       </c>
       <c r="AK1" s="6" t="s">
@@ -1886,7 +1889,7 @@
   <dimension ref="A1:ACX151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1972,7 +1975,7 @@
         <v>23</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>25</v>
@@ -6964,25 +6967,25 @@
     </row>
     <row r="69" spans="1:48" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="80"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="92"/>
-      <c r="K69" s="92"/>
-      <c r="L69" s="92"/>
-      <c r="M69" s="92"/>
-      <c r="N69" s="92"/>
-      <c r="O69" s="92"/>
-      <c r="P69" s="92"/>
-      <c r="Q69" s="92"/>
-      <c r="R69" s="92"/>
-      <c r="S69" s="92"/>
-      <c r="T69" s="92"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="95"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="95"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="95"/>
+      <c r="N69" s="95"/>
+      <c r="O69" s="95"/>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="95"/>
+      <c r="R69" s="95"/>
+      <c r="S69" s="95"/>
+      <c r="T69" s="95"/>
       <c r="U69" s="73"/>
       <c r="V69" s="73"/>
       <c r="W69" s="73"/>
@@ -7414,25 +7417,25 @@
     </row>
     <row r="78" spans="1:48" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="80"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="92"/>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
-      <c r="N78" s="92"/>
-      <c r="O78" s="92"/>
-      <c r="P78" s="92"/>
-      <c r="Q78" s="92"/>
-      <c r="R78" s="92"/>
-      <c r="S78" s="92"/>
-      <c r="T78" s="92"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
+      <c r="Q78" s="95"/>
+      <c r="R78" s="95"/>
+      <c r="S78" s="95"/>
+      <c r="T78" s="95"/>
       <c r="U78" s="73"/>
       <c r="V78" s="73"/>
       <c r="W78" s="73"/>
@@ -7914,25 +7917,25 @@
     </row>
     <row r="88" spans="1:48" ht="46.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="80"/>
-      <c r="B88" s="92"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="92"/>
-      <c r="G88" s="92"/>
-      <c r="H88" s="92"/>
-      <c r="I88" s="92"/>
-      <c r="J88" s="92"/>
-      <c r="K88" s="92"/>
-      <c r="L88" s="92"/>
-      <c r="M88" s="92"/>
-      <c r="N88" s="92"/>
-      <c r="O88" s="92"/>
-      <c r="P88" s="92"/>
-      <c r="Q88" s="92"/>
-      <c r="R88" s="92"/>
-      <c r="S88" s="92"/>
-      <c r="T88" s="92"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="95"/>
+      <c r="F88" s="95"/>
+      <c r="G88" s="95"/>
+      <c r="H88" s="95"/>
+      <c r="I88" s="95"/>
+      <c r="J88" s="95"/>
+      <c r="K88" s="95"/>
+      <c r="L88" s="95"/>
+      <c r="M88" s="95"/>
+      <c r="N88" s="95"/>
+      <c r="O88" s="95"/>
+      <c r="P88" s="95"/>
+      <c r="Q88" s="95"/>
+      <c r="R88" s="95"/>
+      <c r="S88" s="95"/>
+      <c r="T88" s="95"/>
       <c r="U88" s="73"/>
       <c r="V88" s="73"/>
       <c r="W88" s="73"/>
@@ -8414,25 +8417,25 @@
     </row>
     <row r="98" spans="1:48" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="80"/>
-      <c r="B98" s="92"/>
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
-      <c r="J98" s="92"/>
-      <c r="K98" s="92"/>
-      <c r="L98" s="92"/>
-      <c r="M98" s="92"/>
-      <c r="N98" s="92"/>
-      <c r="O98" s="92"/>
-      <c r="P98" s="92"/>
-      <c r="Q98" s="92"/>
-      <c r="R98" s="92"/>
-      <c r="S98" s="92"/>
-      <c r="T98" s="92"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="95"/>
+      <c r="H98" s="95"/>
+      <c r="I98" s="95"/>
+      <c r="J98" s="95"/>
+      <c r="K98" s="95"/>
+      <c r="L98" s="95"/>
+      <c r="M98" s="95"/>
+      <c r="N98" s="95"/>
+      <c r="O98" s="95"/>
+      <c r="P98" s="95"/>
+      <c r="Q98" s="95"/>
+      <c r="R98" s="95"/>
+      <c r="S98" s="95"/>
+      <c r="T98" s="95"/>
       <c r="U98" s="73"/>
       <c r="V98" s="73"/>
       <c r="W98" s="73"/>
@@ -8814,25 +8817,25 @@
     </row>
     <row r="106" spans="1:48" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="80"/>
-      <c r="B106" s="92"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="92"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="92"/>
-      <c r="G106" s="92"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92"/>
-      <c r="L106" s="92"/>
-      <c r="M106" s="92"/>
-      <c r="N106" s="92"/>
-      <c r="O106" s="92"/>
-      <c r="P106" s="92"/>
-      <c r="Q106" s="92"/>
-      <c r="R106" s="92"/>
-      <c r="S106" s="92"/>
-      <c r="T106" s="92"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="95"/>
+      <c r="D106" s="95"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="95"/>
+      <c r="H106" s="95"/>
+      <c r="I106" s="95"/>
+      <c r="J106" s="95"/>
+      <c r="K106" s="95"/>
+      <c r="L106" s="95"/>
+      <c r="M106" s="95"/>
+      <c r="N106" s="95"/>
+      <c r="O106" s="95"/>
+      <c r="P106" s="95"/>
+      <c r="Q106" s="95"/>
+      <c r="R106" s="95"/>
+      <c r="S106" s="95"/>
+      <c r="T106" s="95"/>
       <c r="U106" s="73"/>
       <c r="V106" s="73"/>
       <c r="W106" s="73"/>
@@ -9264,25 +9267,25 @@
     </row>
     <row r="115" spans="1:48" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="80"/>
-      <c r="B115" s="92"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="92"/>
-      <c r="F115" s="92"/>
-      <c r="G115" s="92"/>
-      <c r="H115" s="92"/>
-      <c r="I115" s="92"/>
-      <c r="J115" s="92"/>
-      <c r="K115" s="92"/>
-      <c r="L115" s="92"/>
-      <c r="M115" s="92"/>
-      <c r="N115" s="92"/>
-      <c r="O115" s="92"/>
-      <c r="P115" s="92"/>
-      <c r="Q115" s="92"/>
-      <c r="R115" s="92"/>
-      <c r="S115" s="92"/>
-      <c r="T115" s="92"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="95"/>
+      <c r="H115" s="95"/>
+      <c r="I115" s="95"/>
+      <c r="J115" s="95"/>
+      <c r="K115" s="95"/>
+      <c r="L115" s="95"/>
+      <c r="M115" s="95"/>
+      <c r="N115" s="95"/>
+      <c r="O115" s="95"/>
+      <c r="P115" s="95"/>
+      <c r="Q115" s="95"/>
+      <c r="R115" s="95"/>
+      <c r="S115" s="95"/>
+      <c r="T115" s="95"/>
       <c r="U115" s="73"/>
       <c r="V115" s="73"/>
       <c r="W115" s="73"/>
@@ -9664,25 +9667,25 @@
     </row>
     <row r="123" spans="1:48" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="80"/>
-      <c r="B123" s="92"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="92"/>
-      <c r="E123" s="92"/>
-      <c r="F123" s="92"/>
-      <c r="G123" s="92"/>
-      <c r="H123" s="92"/>
-      <c r="I123" s="92"/>
-      <c r="J123" s="92"/>
-      <c r="K123" s="92"/>
-      <c r="L123" s="92"/>
-      <c r="M123" s="92"/>
-      <c r="N123" s="92"/>
-      <c r="O123" s="92"/>
-      <c r="P123" s="92"/>
-      <c r="Q123" s="92"/>
-      <c r="R123" s="92"/>
-      <c r="S123" s="92"/>
-      <c r="T123" s="92"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="95"/>
+      <c r="F123" s="95"/>
+      <c r="G123" s="95"/>
+      <c r="H123" s="95"/>
+      <c r="I123" s="95"/>
+      <c r="J123" s="95"/>
+      <c r="K123" s="95"/>
+      <c r="L123" s="95"/>
+      <c r="M123" s="95"/>
+      <c r="N123" s="95"/>
+      <c r="O123" s="95"/>
+      <c r="P123" s="95"/>
+      <c r="Q123" s="95"/>
+      <c r="R123" s="95"/>
+      <c r="S123" s="95"/>
+      <c r="T123" s="95"/>
       <c r="U123" s="73"/>
       <c r="V123" s="73"/>
       <c r="W123" s="73"/>
@@ -10064,25 +10067,25 @@
     </row>
     <row r="131" spans="1:48" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="80"/>
-      <c r="B131" s="92"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="92"/>
-      <c r="E131" s="92"/>
-      <c r="F131" s="92"/>
-      <c r="G131" s="92"/>
-      <c r="H131" s="92"/>
-      <c r="I131" s="92"/>
-      <c r="J131" s="92"/>
-      <c r="K131" s="92"/>
-      <c r="L131" s="92"/>
-      <c r="M131" s="92"/>
-      <c r="N131" s="92"/>
-      <c r="O131" s="92"/>
-      <c r="P131" s="92"/>
-      <c r="Q131" s="92"/>
-      <c r="R131" s="92"/>
-      <c r="S131" s="92"/>
-      <c r="T131" s="92"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="95"/>
+      <c r="E131" s="95"/>
+      <c r="F131" s="95"/>
+      <c r="G131" s="95"/>
+      <c r="H131" s="95"/>
+      <c r="I131" s="95"/>
+      <c r="J131" s="95"/>
+      <c r="K131" s="95"/>
+      <c r="L131" s="95"/>
+      <c r="M131" s="95"/>
+      <c r="N131" s="95"/>
+      <c r="O131" s="95"/>
+      <c r="P131" s="95"/>
+      <c r="Q131" s="95"/>
+      <c r="R131" s="95"/>
+      <c r="S131" s="95"/>
+      <c r="T131" s="95"/>
       <c r="U131" s="73"/>
       <c r="V131" s="73"/>
       <c r="W131" s="73"/>
@@ -10514,25 +10517,25 @@
     </row>
     <row r="140" spans="1:48" ht="36.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="80"/>
-      <c r="B140" s="92"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="92"/>
-      <c r="E140" s="92"/>
-      <c r="F140" s="92"/>
-      <c r="G140" s="92"/>
-      <c r="H140" s="92"/>
-      <c r="I140" s="92"/>
-      <c r="J140" s="92"/>
-      <c r="K140" s="92"/>
-      <c r="L140" s="92"/>
-      <c r="M140" s="92"/>
-      <c r="N140" s="92"/>
-      <c r="O140" s="92"/>
-      <c r="P140" s="92"/>
-      <c r="Q140" s="92"/>
-      <c r="R140" s="92"/>
-      <c r="S140" s="92"/>
-      <c r="T140" s="92"/>
+      <c r="B140" s="95"/>
+      <c r="C140" s="95"/>
+      <c r="D140" s="95"/>
+      <c r="E140" s="95"/>
+      <c r="F140" s="95"/>
+      <c r="G140" s="95"/>
+      <c r="H140" s="95"/>
+      <c r="I140" s="95"/>
+      <c r="J140" s="95"/>
+      <c r="K140" s="95"/>
+      <c r="L140" s="95"/>
+      <c r="M140" s="95"/>
+      <c r="N140" s="95"/>
+      <c r="O140" s="95"/>
+      <c r="P140" s="95"/>
+      <c r="Q140" s="95"/>
+      <c r="R140" s="95"/>
+      <c r="S140" s="95"/>
+      <c r="T140" s="95"/>
       <c r="U140" s="73"/>
       <c r="V140" s="73"/>
       <c r="W140" s="73"/>

--- a/data-raw/PCR_ref_data.xlsx
+++ b/data-raw/PCR_ref_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\winfs-inf\TL\stat_learn\work\mdoering\openPrimeR\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdoering\Documents\GitHub\openPrimeR-User\src\openPrimeR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="684" windowWidth="28560" windowHeight="17376" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="684" windowWidth="28560" windowHeight="17376" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TILLER SINGLE PRIMER TEST (3)" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
   <si>
     <t>IGHV1-2*02</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>IGHV3-33*01</t>
-  </si>
-  <si>
-    <t>IGHV3-43*02</t>
   </si>
   <si>
     <t>IGHV3-48*02</t>
@@ -1094,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:AV13"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1104,7 @@
   <sheetData>
     <row r="1" spans="1:48" s="92" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="93" t="s">
         <v>0</v>
@@ -1182,78 +1179,78 @@
         <v>23</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AO1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AS1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AU1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="AU1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="55"/>
@@ -1305,7 +1302,7 @@
     </row>
     <row r="3" spans="1:48" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="4" spans="1:48" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="85"/>
       <c r="C4" s="13"/>
@@ -1409,7 +1406,7 @@
     </row>
     <row r="5" spans="1:48" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="87"/>
       <c r="C5" s="87"/>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="6" spans="1:48" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -1513,7 +1510,7 @@
     </row>
     <row r="7" spans="1:48" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -1565,7 +1562,7 @@
     </row>
     <row r="8" spans="1:48" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="91"/>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -1669,7 +1666,7 @@
     </row>
     <row r="10" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -1721,7 +1718,7 @@
     </row>
     <row r="11" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1773,7 +1770,7 @@
     </row>
     <row r="12" spans="1:48" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -1825,7 +1822,7 @@
     </row>
     <row r="13" spans="1:48" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -1888,7 +1885,7 @@
   </sheetPr>
   <dimension ref="A1:ACX151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView topLeftCell="Y1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
@@ -1900,7 +1897,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1975,78 +1972,78 @@
         <v>23</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AV1" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="AV1" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="55.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2098,7 +2095,7 @@
     </row>
     <row r="3" spans="1:48" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -2150,7 +2147,7 @@
     </row>
     <row r="4" spans="1:48" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -2202,7 +2199,7 @@
     </row>
     <row r="5" spans="1:48" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2254,7 +2251,7 @@
     </row>
     <row r="6" spans="1:48" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -2306,7 +2303,7 @@
     </row>
     <row r="7" spans="1:48" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -2358,7 +2355,7 @@
     </row>
     <row r="8" spans="1:48" ht="43.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="17"/>
@@ -2410,7 +2407,7 @@
     </row>
     <row r="9" spans="1:48" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="24"/>
@@ -2462,7 +2459,7 @@
     </row>
     <row r="10" spans="1:48" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -2514,7 +2511,7 @@
     </row>
     <row r="11" spans="1:48" ht="46.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -2566,7 +2563,7 @@
     </row>
     <row r="12" spans="1:48" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -2618,7 +2615,7 @@
     </row>
     <row r="13" spans="1:48" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -2670,7 +2667,7 @@
     </row>
     <row r="14" spans="1:48" ht="43.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -2722,7 +2719,7 @@
     </row>
     <row r="15" spans="1:48" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -2774,7 +2771,7 @@
     </row>
     <row r="16" spans="1:48" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -2826,7 +2823,7 @@
     </row>
     <row r="17" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -2878,7 +2875,7 @@
     </row>
     <row r="18" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="19" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -2982,7 +2979,7 @@
     </row>
     <row r="20" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -3034,7 +3031,7 @@
     </row>
     <row r="21" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -3086,7 +3083,7 @@
     </row>
     <row r="22" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -3138,7 +3135,7 @@
     </row>
     <row r="23" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -3190,7 +3187,7 @@
     </row>
     <row r="24" spans="1:778" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -3972,7 +3969,7 @@
     </row>
     <row r="25" spans="1:778" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -4754,7 +4751,7 @@
     </row>
     <row r="26" spans="1:778" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -4806,7 +4803,7 @@
     </row>
     <row r="27" spans="1:778" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -4858,7 +4855,7 @@
     </row>
     <row r="28" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -4910,7 +4907,7 @@
     </row>
     <row r="29" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -4962,7 +4959,7 @@
     </row>
     <row r="30" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -5014,7 +5011,7 @@
     </row>
     <row r="31" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -5066,7 +5063,7 @@
     </row>
     <row r="32" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -5118,7 +5115,7 @@
     </row>
     <row r="33" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -5170,7 +5167,7 @@
     </row>
     <row r="34" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -5222,7 +5219,7 @@
     </row>
     <row r="35" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
@@ -5274,7 +5271,7 @@
     </row>
     <row r="36" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -5326,7 +5323,7 @@
     </row>
     <row r="37" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -5378,7 +5375,7 @@
     </row>
     <row r="38" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -5430,7 +5427,7 @@
     </row>
     <row r="39" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -5482,7 +5479,7 @@
     </row>
     <row r="40" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -5534,7 +5531,7 @@
     </row>
     <row r="41" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="78"/>
       <c r="C41" s="78"/>
@@ -5586,7 +5583,7 @@
     </row>
     <row r="42" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
@@ -5638,7 +5635,7 @@
     </row>
     <row r="43" spans="1:48" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
@@ -5690,7 +5687,7 @@
     </row>
     <row r="44" spans="1:48" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="17"/>
@@ -5742,7 +5739,7 @@
     </row>
     <row r="45" spans="1:48" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -5794,7 +5791,7 @@
     </row>
     <row r="46" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -5846,7 +5843,7 @@
     </row>
     <row r="47" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -5898,7 +5895,7 @@
     </row>
     <row r="48" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -5950,7 +5947,7 @@
     </row>
     <row r="49" spans="1:63" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>

--- a/data-raw/PCR_ref_data.xlsx
+++ b/data-raw/PCR_ref_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="684" windowWidth="28560" windowHeight="17376" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="684" windowWidth="28560" windowHeight="17376" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TILLER SINGLE PRIMER TEST (3)" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
   <si>
     <t>IGHV1-2*02</t>
   </si>
@@ -127,9 +127,6 @@
     <t>IGHV3-73*01</t>
   </si>
   <si>
-    <t>IGHV3-74*02</t>
-  </si>
-  <si>
     <t>IGHV4-4*07</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>primer 15</t>
   </si>
   <si>
-    <t>IGHV3-62D</t>
-  </si>
-  <si>
     <t>5'LVH1</t>
   </si>
   <si>
@@ -236,6 +230,9 @@
   </si>
   <si>
     <t>IGHV3-43*01</t>
+  </si>
+  <si>
+    <t>IGHV3-74*01</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1088,8 @@
   </sheetPr>
   <dimension ref="A1:AV13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="AI1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1104,7 +1101,7 @@
   <sheetData>
     <row r="1" spans="1:48" s="92" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="93" t="s">
         <v>0</v>
@@ -1179,78 +1176,78 @@
         <v>23</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AI1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="AJ1" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="AL1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AM1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AP1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AQ1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AU1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="AU1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="55"/>
@@ -1302,7 +1299,7 @@
     </row>
     <row r="3" spans="1:48" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -1354,7 +1351,7 @@
     </row>
     <row r="4" spans="1:48" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="85"/>
       <c r="C4" s="13"/>
@@ -1406,7 +1403,7 @@
     </row>
     <row r="5" spans="1:48" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="87"/>
       <c r="C5" s="87"/>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="6" spans="1:48" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="7" spans="1:48" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -1562,7 +1559,7 @@
     </row>
     <row r="8" spans="1:48" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="91"/>
@@ -1614,7 +1611,7 @@
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="10" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -1718,7 +1715,7 @@
     </row>
     <row r="11" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1770,7 +1767,7 @@
     </row>
     <row r="12" spans="1:48" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -1822,7 +1819,7 @@
     </row>
     <row r="13" spans="1:48" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -1885,8 +1882,8 @@
   </sheetPr>
   <dimension ref="A1:ACX151"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1897,7 +1894,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1972,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>24</v>
@@ -1999,51 +1996,51 @@
         <v>31</v>
       </c>
       <c r="AI1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AV1" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="AV1" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="55.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="3" spans="1:48" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -2147,7 +2144,7 @@
     </row>
     <row r="4" spans="1:48" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -2199,7 +2196,7 @@
     </row>
     <row r="5" spans="1:48" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2251,7 +2248,7 @@
     </row>
     <row r="6" spans="1:48" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -2303,7 +2300,7 @@
     </row>
     <row r="7" spans="1:48" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -2355,7 +2352,7 @@
     </row>
     <row r="8" spans="1:48" ht="43.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="17"/>
@@ -2407,7 +2404,7 @@
     </row>
     <row r="9" spans="1:48" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="24"/>
@@ -2459,7 +2456,7 @@
     </row>
     <row r="10" spans="1:48" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -2511,7 +2508,7 @@
     </row>
     <row r="11" spans="1:48" ht="46.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -2563,7 +2560,7 @@
     </row>
     <row r="12" spans="1:48" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -2615,7 +2612,7 @@
     </row>
     <row r="13" spans="1:48" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -2667,7 +2664,7 @@
     </row>
     <row r="14" spans="1:48" ht="43.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -2719,7 +2716,7 @@
     </row>
     <row r="15" spans="1:48" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -2771,7 +2768,7 @@
     </row>
     <row r="16" spans="1:48" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -2823,7 +2820,7 @@
     </row>
     <row r="17" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="18" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -2927,7 +2924,7 @@
     </row>
     <row r="19" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -2979,7 +2976,7 @@
     </row>
     <row r="20" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -3031,7 +3028,7 @@
     </row>
     <row r="21" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -3083,7 +3080,7 @@
     </row>
     <row r="22" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -3135,7 +3132,7 @@
     </row>
     <row r="23" spans="1:778" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -3187,7 +3184,7 @@
     </row>
     <row r="24" spans="1:778" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -3969,7 +3966,7 @@
     </row>
     <row r="25" spans="1:778" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -4751,7 +4748,7 @@
     </row>
     <row r="26" spans="1:778" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -4803,7 +4800,7 @@
     </row>
     <row r="27" spans="1:778" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -4855,7 +4852,7 @@
     </row>
     <row r="28" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -4907,7 +4904,7 @@
     </row>
     <row r="29" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="30" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -5011,7 +5008,7 @@
     </row>
     <row r="31" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -5063,7 +5060,7 @@
     </row>
     <row r="32" spans="1:778" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -5115,7 +5112,7 @@
     </row>
     <row r="33" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -5167,7 +5164,7 @@
     </row>
     <row r="34" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -5219,7 +5216,7 @@
     </row>
     <row r="35" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
@@ -5271,7 +5268,7 @@
     </row>
     <row r="36" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -5323,7 +5320,7 @@
     </row>
     <row r="37" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="38" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -5427,7 +5424,7 @@
     </row>
     <row r="39" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -5479,7 +5476,7 @@
     </row>
     <row r="40" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -5531,7 +5528,7 @@
     </row>
     <row r="41" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="78"/>
       <c r="C41" s="78"/>
@@ -5583,7 +5580,7 @@
     </row>
     <row r="42" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
@@ -5635,7 +5632,7 @@
     </row>
     <row r="43" spans="1:48" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
@@ -5687,7 +5684,7 @@
     </row>
     <row r="44" spans="1:48" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="17"/>
@@ -5739,7 +5736,7 @@
     </row>
     <row r="45" spans="1:48" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -5791,7 +5788,7 @@
     </row>
     <row r="46" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -5843,7 +5840,7 @@
     </row>
     <row r="47" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -5895,7 +5892,7 @@
     </row>
     <row r="48" spans="1:48" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -5947,7 +5944,7 @@
     </row>
     <row r="49" spans="1:63" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
